--- a/biology/Botanique/Asphodèle_blanc/Asphodèle_blanc.xlsx
+++ b/biology/Botanique/Asphodèle_blanc/Asphodèle_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_blanc</t>
+          <t>Asphodèle_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asphodelus albus
 L'Asphodèle blanc (Asphodelus albus) est une espèce de plantes herbacées vivaces. Elle appartient à la famille des Liliaceae selon la classification classique, ou à celle des Asphodelaceae (ou optionnellement à celle des Xanthorrhoeaceae lato sensus) selon la classification phylogénétique et au genre Asphodelus.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_blanc</t>
+          <t>Asphodèle_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Asphodelus albus a été décrite par le botaniste Philip Miller en 1768[1].
-Synonymie
-Asphodelus ramosus subsp. albus (Mill.) Baker 1876 [2]
-Asphodelus ramosus var. albus (Mill.) Fiori 1923 Fiori, Nuov. Fl. Italia 1: 276 (1923)
-Noms vernaculaires
-Asphodèle blanc mais aussi « Poireau de chien », « bâton royal » ou « bâton blanc ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Asphodelus albus a été décrite par le botaniste Philip Miller en 1768.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_blanc</t>
+          <t>Asphodèle_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +555,85 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Asphodelus ramosus subsp. albus (Mill.) Baker 1876 
+Asphodelus ramosus var. albus (Mill.) Fiori 1923 Fiori, Nuov. Fl. Italia 1: 276 (1923)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asphodèle blanc mais aussi « Poireau de chien », « bâton royal » ou « bâton blanc ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe quatre sous-espèces :
 Asphodelus albus subsp. albus ;
@@ -558,33 +643,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forme : tige de 50 cm à 1,20 m de haut[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forme : tige de 50 cm à 1,20 m de haut.
 Racines : à renflements charnus allongés en fuseau.
 Feuilles : longues et un peu glauques, en forme de gouttière, partant toutes de la base d'une tige pleine.
 Fleurs : au bout des tiges pleines, grappe dense de fleurs à six6 pièces étalées.
@@ -599,75 +686,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Floraison</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mai à septembre.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prairies, pelouses et landes jusqu'à 2 000 m d'altitude.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_blanc</t>
+          <t>Asphodèle_blanc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,10 +707,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mai à septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prairies, pelouses et landes jusqu'à 2 000 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la région méditerranéenne.
 L'espèce est présente en France métropolitaine dans 47 départements depuis le Finistère jusqu'aux Pyrénées au sud et les Cévennes à l'est, ainsi que dans sept départements des Alpes.
@@ -698,75 +791,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Toxicité</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Non toxique[réf. souhaitée].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Statut</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'asphodèle blanc ne bénéficie d'aucun statut de protection légale en France[4],[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Asphod%C3%A8le_blanc</t>
+          <t>Asphodèle_blanc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,10 +812,78 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non toxique[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'asphodèle blanc ne bénéficie d'aucun statut de protection légale en France,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Asphodèle_blanc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Asphod%C3%A8le_blanc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la Grèce antique, l'asphodèle blanc était associé au deuil et à la mort. Sa présence était censée faciliter le passage du mort vers l'elysium, paradis des héros défunts.
 </t>
